--- a/docs/書籍資料.xlsx
+++ b/docs/書籍資料.xlsx
@@ -4,18 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="615" windowWidth="27735" windowHeight="13950"/>
+    <workbookView xWindow="510" yWindow="615" windowWidth="27735" windowHeight="13950" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="資料庫" sheetId="3" r:id="rId1"/>
+    <sheet name="EXCEL表" sheetId="1" r:id="rId2"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">資料庫!$A$2:$N$62</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="380">
   <si>
     <t>ISBN</t>
   </si>
@@ -377,9 +381,6 @@
     <t>知返</t>
   </si>
   <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczNW-aj9QTAIFhrpMkbhn14egJ1TZb0LRG8TCsJrySB4QZgY2rFZ2SzERDGxpmDrP0fWBw0BknpQsikrxMv0-M_kJuw1MawLICb-cBH56Ezb8Eviev3ODVMZRizn7o8ipI3_4T0dDmaBiNSRQ1AsE40a=w378-h476-s-no-gm?authuser=0</t>
-  </si>
-  <si>
     <t>999-000-660896-1</t>
   </si>
   <si>
@@ -389,9 +390,6 @@
     <t>黃問游</t>
   </si>
   <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczM6GitAYhwBCR1iZqaL4aEx2LScTRzc8y6HyyqZVlKWmM76hMaoIoHJkW-YJxlgdx6-KB3BuOJF4nhGnp1g4GihtLZ8Uef4d_l9aCB43Kn28KttPebICmHR6G6HjoMhRloz9d0awUFYcwn_ZvuhCRjp=w428-h538-s-no-gm?authuser=0</t>
-  </si>
-  <si>
     <t>999-000-360803-2</t>
   </si>
   <si>
@@ -401,9 +399,6 @@
     <t>兆品力</t>
   </si>
   <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczOL9qk-Itdu8R7oLIlHxavcrxOSBj2_-hMM7D8WWzeHY8DWt9bWdzLKaSkl_5B02OOd9EchNSMHkU348u0r4LTkAwVf12NL4VVsWeAFWxCwEmRjUmvK4a1BEW-RkE6GXfA_emo1GzzcXLbbt0OqL5E3=w425-h540-s-no-gm?authuser=0</t>
-  </si>
-  <si>
     <t>999-000-293900-3</t>
   </si>
   <si>
@@ -530,36 +525,24 @@
     <t>若是明天我們會見面</t>
   </si>
   <si>
-    <t>https://cdn.discordapp.com/attachments/1372605401174118532/1373345772224905346/f.jpg?ex=682eb0ab&amp;is=682d5f2b&amp;hm=5e181385c5f8cf288fda83556848bd6464f57157ebe20f157bd7532fb3bc0c72&amp;</t>
-  </si>
-  <si>
     <t>999-000-409906-0</t>
   </si>
   <si>
     <t>只有我知道那河裡有什麼</t>
   </si>
   <si>
-    <t>https://cdn.discordapp.com/attachments/1372605401174118532/1373345772552065135/g.jpg?ex=682eb0ab&amp;is=682d5f2b&amp;hm=16c8affd647ad74b7b47261e2166e8d5ae79b7e32b7dac8a7325a58b7ef0b4ea&amp;</t>
-  </si>
-  <si>
     <t>999-000-668871-0</t>
   </si>
   <si>
     <t>簡單易懂的電腦科學</t>
   </si>
   <si>
-    <t>https://cdn.discordapp.com/attachments/1372605401174118532/1373345770782068946/b.jpg?ex=682eb0ab&amp;is=682d5f2b&amp;hm=cde3fb4084baec6759b8814b54cadadd4c04980af889af1ef15d64fbf94812f9&amp;</t>
-  </si>
-  <si>
     <t>999-000-241891-4</t>
   </si>
   <si>
     <t>自然科學</t>
   </si>
   <si>
-    <t>https://cdn.discordapp.com/attachments/1372605401174118532/1373345771100963017/c.jpg?ex=682eb0ab&amp;is=682d5f2b&amp;hm=02d47348ac879bca21ff156d2fa52c4fd76c2c2d8f451f1853bfd42f6872e9a1&amp;</t>
-  </si>
-  <si>
     <t>999-000-212048-5</t>
   </si>
   <si>
@@ -569,9 +552,6 @@
     <t>後漢書</t>
   </si>
   <si>
-    <t>https://cdn.discordapp.com/attachments/1372605401174118532/1373345770505240766/a.jpg?ex=682eb0ab&amp;is=682d5f2b&amp;hm=7697117c8890fdbdbfb2c2937ee6b371ae0229117e0d2f26236be1bad369640b&amp;</t>
-  </si>
-  <si>
     <t>999-000-895922-4</t>
   </si>
   <si>
@@ -581,9 +561,6 @@
     <t>台灣都市鳥類圖鑑</t>
   </si>
   <si>
-    <t>https://cdn.discordapp.com/attachments/1372605401174118532/1373345771847680211/e.jpg?ex=682eb0ab&amp;is=682d5f2b&amp;hm=3cd83d4d05db6ae92267f9a7b263eedbb06dd0640cde0c4bc52584385e93bd30&amp;</t>
-  </si>
-  <si>
     <t>999-000-298283-5</t>
   </si>
   <si>
@@ -593,27 +570,18 @@
     <t>搞笑藝人不搞笑</t>
   </si>
   <si>
-    <t>https://cdn.discordapp.com/attachments/1372605401174118532/1373345774108151999/j.jpg?ex=682eb0ac&amp;is=682d5f2c&amp;hm=b30932536909c12834a0f7cc2bb5fcacc5f46bd8ab79b40be38595b444f9a575&amp;</t>
-  </si>
-  <si>
     <t>999-000-854952-1</t>
   </si>
   <si>
     <t>我的第一盆盆栽</t>
   </si>
   <si>
-    <t>https://cdn.discordapp.com/attachments/1372605401174118532/1373345773617414194/i.jpg?ex=682eb0ab&amp;is=682d5f2b&amp;hm=a5ede9a54f92d85bb81a74b8f8c5ce373e4bd85b3aa1e3e6b208778a162de092&amp;</t>
-  </si>
-  <si>
     <t>999-000-267514-0</t>
   </si>
   <si>
     <t>麻雀都去哪裡了？</t>
   </si>
   <si>
-    <t>https://cdn.discordapp.com/attachments/1372605401174118532/1373345773332332717/h.jpg?ex=682eb0ab&amp;is=682d5f2b&amp;hm=abd436ab8b45e198550492b9a6965a246450c5e46c991ef467040a0d9ff0636d&amp;</t>
-  </si>
-  <si>
     <t>999-000-910668-7</t>
   </si>
   <si>
@@ -621,9 +589,6 @@
   </si>
   <si>
     <t>白馬非馬-中國經典哲學</t>
-  </si>
-  <si>
-    <t>https://cdn.discordapp.com/attachments/1372605401174118532/1373345771386044558/d.jpg?ex=682eb0ab&amp;is=682d5f2b&amp;hm=1652c91a30e95f37d7d16dd8b8565d423271f1dc6c154c416689d11e28c01ab3&amp;</t>
   </si>
   <si>
     <t>F9刷新</t>
@@ -1110,13 +1075,103 @@
   </si>
   <si>
     <t>https://lh3.googleusercontent.com/pw/AP1GczMSOgk75vEklbnFJYf_7abRGdoneWrW92oH4aEabLR24JA540eY0H3qm1ERA-ZLoFj3HD_7K8Xkf6KK8IL-oDDXd9QuP95KhzapwCISdWZcyeK6lq_WYvZsYGRQh-Oqg8XP3qW3sDhbnW20esA3m3jC=w869-h869-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>書籍</t>
+  </si>
+  <si>
+    <t>宗教信仰與靈修</t>
+  </si>
+  <si>
+    <t>其他出版物</t>
+  </si>
+  <si>
+    <t>世界與區域歷史</t>
+  </si>
+  <si>
+    <t>https://images.plurk.com/1P95vEdLCKcY0d5xkppkI8.jpg</t>
+  </si>
+  <si>
+    <t>https://images.plurk.com/6ZfTAOaLmiDiW4hjhdFzyC.jpg</t>
+  </si>
+  <si>
+    <t>飲食與健康</t>
+  </si>
+  <si>
+    <t>https://images.plurk.com/YzX5YwoxG6LrpzSjVrTN8.jpg</t>
+  </si>
+  <si>
+    <t>科普讀物</t>
+  </si>
+  <si>
+    <t>https://images.plurk.com/CVsymBRSTgr4j1bpFjgAP.jpg</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPL1Lt_iuvZ9RtLZvuQiOtpYf6eTDr2oDLFOiHSpu4hpo4WLEcQiqNVU5WBgWezAn1EwaXznKGl9KAG1yNusZ4h51UBaUWqOWHuf-shcmfh6FYOpIEW2M35Frqm-Lzc1OY0haS4UfvrchE2Hq2LS2Fr=w460-h580-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://images.plurk.com/4TmjE92zBJ4HQ7ZUhYVBjh.jpg</t>
+  </si>
+  <si>
+    <t>https://images.plurk.com/1S1mrYKvyGadaoCkRZMWtv.jpg</t>
+  </si>
+  <si>
+    <t>散文與詩詞</t>
+  </si>
+  <si>
+    <t>這是一本專門研究珍稀果實「騭?」的農業科學專著。本書詳細介紹了騭?的植物學分類、生物特性、生長習性及其對土壤、氣候條件的特殊要求。從種子培育、幼苗管理、病蟲害防治到果實採摘與儲存，書中系統地闡述了騭?從育種到豐收的全過程。同時，本書還探討了騭?的營養成分、藥用價值以及在食品加工中的應用前景。透過大量的實驗數據、田間觀察記錄和栽培圖示，本書為專業農業研究人員、園藝愛好者以及騭?種植者提供了權威且實用的技術指導。</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczN1nCBb0efX7PhLSHew8d5_wC32hipYvmUa8JOPLzB2e2oMNi6obo8ctyXxDbj81hh9SHZA-LwpVFzYbPS4Cpc_Z2W0lar0TGuiYyOFpHYdRbQ90uG3xyCS85oONUOyX9wq0l6hgNl1Y71bN4BtQaab=w460-h580-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://images.plurk.com/1zJiIW2DtNQHKeIMXkoyqj.jpg</t>
+  </si>
+  <si>
+    <t>漫畫</t>
+  </si>
+  <si>
+    <t>https://images.plurk.com/5KzsKl25jNoSJbnEoi77rl.jpg</t>
+  </si>
+  <si>
+    <t>繪本</t>
+  </si>
+  <si>
+    <t>雜誌</t>
+  </si>
+  <si>
+    <t>https://images.plurk.com/47DXvzNeIckj3Gmnz3355P.jpg</t>
+  </si>
+  <si>
+    <t>https://images.plurk.com/78sGuZsCpxYmbj0tNkQZVE.jpg</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPUymPfxPh2YFqzUYpfXHR7o0O1fzvZqlnFaghV_iigdqWrYaOne1IYdY25YVgEmUGYa-2_X4dvulD4OLQqqssAx2ihzFWRjuTXD8A8aFda3sHSwmYJwgg6i6XJAhqiuCXrVw0LJVcuoYrgkMDYsvmg=w460-h580-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>999-000-123456-7</t>
+  </si>
+  <si>
+    <t>999-000-678901-2</t>
+  </si>
+  <si>
+    <t>出版類型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>美術與攝影</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>詳盡介紹火箭科學的基礎原理與最新發展。從推進系統、空氣動力學到軌道力學，揭示火箭升空、太空探索的奧秘。內容涵蓋各類型火箭的設計與應用，為讀者揭開航太科技的神秘面紗，一窺人類征服宇宙的偉大成就。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1170,6 +1225,14 @@
       <color rgb="FF1F1F1F"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1198,7 +1261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1240,6 +1303,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1453,11 +1517,2619 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="3" max="3" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G2" t="s">
+        <v>271</v>
+      </c>
+      <c r="H2" t="s">
+        <v>272</v>
+      </c>
+      <c r="I2" t="s">
+        <v>273</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2">
+        <v>320</v>
+      </c>
+      <c r="L2">
+        <v>480</v>
+      </c>
+      <c r="M2">
+        <v>120</v>
+      </c>
+      <c r="N2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F3" t="s">
+        <v>304</v>
+      </c>
+      <c r="G3" t="s">
+        <v>305</v>
+      </c>
+      <c r="H3" t="s">
+        <v>306</v>
+      </c>
+      <c r="I3" t="s">
+        <v>295</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3">
+        <v>520</v>
+      </c>
+      <c r="L3">
+        <v>880</v>
+      </c>
+      <c r="M3">
+        <v>75</v>
+      </c>
+      <c r="N3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D4" t="s">
+        <v>328</v>
+      </c>
+      <c r="F4" t="s">
+        <v>329</v>
+      </c>
+      <c r="G4" t="s">
+        <v>330</v>
+      </c>
+      <c r="H4" t="s">
+        <v>331</v>
+      </c>
+      <c r="I4" t="s">
+        <v>312</v>
+      </c>
+      <c r="J4" t="s">
+        <v>324</v>
+      </c>
+      <c r="K4">
+        <v>180</v>
+      </c>
+      <c r="L4">
+        <v>280</v>
+      </c>
+      <c r="M4">
+        <v>200</v>
+      </c>
+      <c r="N4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5">
+        <v>1024</v>
+      </c>
+      <c r="L5">
+        <v>499</v>
+      </c>
+      <c r="M5">
+        <v>229</v>
+      </c>
+      <c r="N5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6">
+        <v>849</v>
+      </c>
+      <c r="L6">
+        <v>748</v>
+      </c>
+      <c r="M6">
+        <v>75</v>
+      </c>
+      <c r="N6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C7" t="s">
+        <v>334</v>
+      </c>
+      <c r="D7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H7" t="s">
+        <v>338</v>
+      </c>
+      <c r="I7" t="s">
+        <v>280</v>
+      </c>
+      <c r="J7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K7">
+        <v>410</v>
+      </c>
+      <c r="L7">
+        <v>680</v>
+      </c>
+      <c r="M7">
+        <v>95</v>
+      </c>
+      <c r="N7" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" t="s">
+        <v>351</v>
+      </c>
+      <c r="C8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D8" t="s">
+        <v>341</v>
+      </c>
+      <c r="E8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8">
+        <v>214</v>
+      </c>
+      <c r="L8">
+        <v>641</v>
+      </c>
+      <c r="M8">
+        <v>143</v>
+      </c>
+      <c r="N8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" t="s">
+        <v>353</v>
+      </c>
+      <c r="C9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" t="s">
+        <v>354</v>
+      </c>
+      <c r="F9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G9" t="s">
+        <v>230</v>
+      </c>
+      <c r="H9" t="s">
+        <v>211</v>
+      </c>
+      <c r="I9" t="s">
+        <v>254</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9">
+        <v>291</v>
+      </c>
+      <c r="L9">
+        <v>216</v>
+      </c>
+      <c r="M9">
+        <v>57</v>
+      </c>
+      <c r="N9" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" t="s">
+        <v>351</v>
+      </c>
+      <c r="C10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H10" t="s">
+        <v>223</v>
+      </c>
+      <c r="I10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10">
+        <v>1038</v>
+      </c>
+      <c r="L10">
+        <v>880</v>
+      </c>
+      <c r="M10">
+        <v>195</v>
+      </c>
+      <c r="N10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" t="s">
+        <v>340</v>
+      </c>
+      <c r="B11" t="s">
+        <v>351</v>
+      </c>
+      <c r="C11" t="s">
+        <v>266</v>
+      </c>
+      <c r="D11" t="s">
+        <v>341</v>
+      </c>
+      <c r="F11" t="s">
+        <v>342</v>
+      </c>
+      <c r="G11" t="s">
+        <v>343</v>
+      </c>
+      <c r="H11" t="s">
+        <v>344</v>
+      </c>
+      <c r="I11" t="s">
+        <v>280</v>
+      </c>
+      <c r="J11" t="s">
+        <v>324</v>
+      </c>
+      <c r="K11">
+        <v>370</v>
+      </c>
+      <c r="L11">
+        <v>720</v>
+      </c>
+      <c r="M11">
+        <v>70</v>
+      </c>
+      <c r="N11" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" t="s">
+        <v>275</v>
+      </c>
+      <c r="B12" t="s">
+        <v>351</v>
+      </c>
+      <c r="C12" t="s">
+        <v>276</v>
+      </c>
+      <c r="D12" t="s">
+        <v>173</v>
+      </c>
+      <c r="F12" t="s">
+        <v>277</v>
+      </c>
+      <c r="G12" t="s">
+        <v>278</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="I12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12">
+        <v>450</v>
+      </c>
+      <c r="L12">
+        <v>750</v>
+      </c>
+      <c r="M12">
+        <v>85</v>
+      </c>
+      <c r="N12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" t="s">
+        <v>351</v>
+      </c>
+      <c r="C13" t="s">
+        <v>276</v>
+      </c>
+      <c r="D13" t="s">
+        <v>173</v>
+      </c>
+      <c r="F13" t="s">
+        <v>173</v>
+      </c>
+      <c r="G13" t="s">
+        <v>229</v>
+      </c>
+      <c r="H13" t="s">
+        <v>210</v>
+      </c>
+      <c r="I13" t="s">
+        <v>253</v>
+      </c>
+      <c r="J13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13">
+        <v>577</v>
+      </c>
+      <c r="L13">
+        <v>347</v>
+      </c>
+      <c r="M13">
+        <v>150</v>
+      </c>
+      <c r="N13" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" t="s">
+        <v>351</v>
+      </c>
+      <c r="C14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D14" t="s">
+        <v>173</v>
+      </c>
+      <c r="F14" t="s">
+        <v>163</v>
+      </c>
+      <c r="G14" t="s">
+        <v>164</v>
+      </c>
+      <c r="H14" t="s">
+        <v>225</v>
+      </c>
+      <c r="I14" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14">
+        <v>910</v>
+      </c>
+      <c r="L14">
+        <v>230</v>
+      </c>
+      <c r="M14">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" t="s">
+        <v>351</v>
+      </c>
+      <c r="C15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" t="s">
+        <v>357</v>
+      </c>
+      <c r="F15" t="s">
+        <v>186</v>
+      </c>
+      <c r="G15" t="s">
+        <v>232</v>
+      </c>
+      <c r="H15" t="s">
+        <v>206</v>
+      </c>
+      <c r="I15" t="s">
+        <v>252</v>
+      </c>
+      <c r="J15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15">
+        <v>755</v>
+      </c>
+      <c r="L15">
+        <v>857</v>
+      </c>
+      <c r="M15">
+        <v>86</v>
+      </c>
+      <c r="N15" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" t="s">
+        <v>351</v>
+      </c>
+      <c r="C16" t="s">
+        <v>276</v>
+      </c>
+      <c r="D16" t="s">
+        <v>359</v>
+      </c>
+      <c r="F16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16" t="s">
+        <v>216</v>
+      </c>
+      <c r="I16" t="s">
+        <v>119</v>
+      </c>
+      <c r="J16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16">
+        <v>219</v>
+      </c>
+      <c r="L16">
+        <v>250</v>
+      </c>
+      <c r="M16">
+        <v>63</v>
+      </c>
+      <c r="N16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" t="s">
+        <v>351</v>
+      </c>
+      <c r="C17" t="s">
+        <v>283</v>
+      </c>
+      <c r="D17" t="s">
+        <v>284</v>
+      </c>
+      <c r="F17" t="s">
+        <v>182</v>
+      </c>
+      <c r="G17" t="s">
+        <v>231</v>
+      </c>
+      <c r="H17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I17" t="s">
+        <v>254</v>
+      </c>
+      <c r="J17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17">
+        <v>309</v>
+      </c>
+      <c r="L17">
+        <v>583</v>
+      </c>
+      <c r="M17">
+        <v>235</v>
+      </c>
+      <c r="N17" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" t="s">
+        <v>353</v>
+      </c>
+      <c r="C18" t="s">
+        <v>266</v>
+      </c>
+      <c r="D18" t="s">
+        <v>341</v>
+      </c>
+      <c r="F18" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" t="s">
+        <v>148</v>
+      </c>
+      <c r="H18" t="s">
+        <v>221</v>
+      </c>
+      <c r="I18" t="s">
+        <v>119</v>
+      </c>
+      <c r="J18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18">
+        <v>744</v>
+      </c>
+      <c r="L18">
+        <v>390</v>
+      </c>
+      <c r="M18">
+        <v>67</v>
+      </c>
+      <c r="N18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
+        <v>346</v>
+      </c>
+      <c r="B19" t="s">
+        <v>351</v>
+      </c>
+      <c r="C19" t="s">
+        <v>276</v>
+      </c>
+      <c r="D19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F19" t="s">
+        <v>347</v>
+      </c>
+      <c r="G19" t="s">
+        <v>348</v>
+      </c>
+      <c r="H19" t="s">
+        <v>349</v>
+      </c>
+      <c r="I19" t="s">
+        <v>295</v>
+      </c>
+      <c r="J19" t="s">
+        <v>324</v>
+      </c>
+      <c r="K19">
+        <v>490</v>
+      </c>
+      <c r="L19">
+        <v>850</v>
+      </c>
+      <c r="M19">
+        <v>50</v>
+      </c>
+      <c r="N19" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" t="s">
+        <v>282</v>
+      </c>
+      <c r="B20" t="s">
+        <v>351</v>
+      </c>
+      <c r="C20" t="s">
+        <v>283</v>
+      </c>
+      <c r="D20" t="s">
+        <v>284</v>
+      </c>
+      <c r="F20" t="s">
+        <v>285</v>
+      </c>
+      <c r="G20" t="s">
+        <v>286</v>
+      </c>
+      <c r="H20" t="s">
+        <v>287</v>
+      </c>
+      <c r="I20" t="s">
+        <v>273</v>
+      </c>
+      <c r="J20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20">
+        <v>288</v>
+      </c>
+      <c r="L20">
+        <v>420</v>
+      </c>
+      <c r="M20">
+        <v>155</v>
+      </c>
+      <c r="N20" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" t="s">
+        <v>351</v>
+      </c>
+      <c r="C21" t="s">
+        <v>276</v>
+      </c>
+      <c r="D21" t="s">
+        <v>359</v>
+      </c>
+      <c r="F21" t="s">
+        <v>124</v>
+      </c>
+      <c r="G21" t="s">
+        <v>125</v>
+      </c>
+      <c r="H21" t="s">
+        <v>201</v>
+      </c>
+      <c r="I21" t="s">
+        <v>119</v>
+      </c>
+      <c r="J21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21">
+        <v>1188</v>
+      </c>
+      <c r="L21">
+        <v>320</v>
+      </c>
+      <c r="M21">
+        <v>223</v>
+      </c>
+      <c r="N21" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22">
+        <v>1159</v>
+      </c>
+      <c r="L22">
+        <v>711</v>
+      </c>
+      <c r="M22">
+        <v>202</v>
+      </c>
+      <c r="N22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" t="s">
+        <v>255</v>
+      </c>
+      <c r="B23" t="s">
+        <v>351</v>
+      </c>
+      <c r="C23" t="s">
+        <v>266</v>
+      </c>
+      <c r="D23" t="s">
+        <v>320</v>
+      </c>
+      <c r="F23" t="s">
+        <v>235</v>
+      </c>
+      <c r="G23" t="s">
+        <v>245</v>
+      </c>
+      <c r="H23" t="s">
+        <v>262</v>
+      </c>
+      <c r="I23" t="s">
+        <v>251</v>
+      </c>
+      <c r="J23" t="s">
+        <v>324</v>
+      </c>
+      <c r="K23">
+        <v>664</v>
+      </c>
+      <c r="L23">
+        <v>1066</v>
+      </c>
+      <c r="M23">
+        <v>76</v>
+      </c>
+      <c r="N23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>169</v>
+      </c>
+      <c r="G24" t="s">
+        <v>228</v>
+      </c>
+      <c r="H24" t="s">
+        <v>208</v>
+      </c>
+      <c r="I24" t="s">
+        <v>252</v>
+      </c>
+      <c r="J24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24">
+        <v>537</v>
+      </c>
+      <c r="L24">
+        <v>771</v>
+      </c>
+      <c r="M24">
+        <v>208</v>
+      </c>
+      <c r="N24" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25">
+        <v>963</v>
+      </c>
+      <c r="L25">
+        <v>711</v>
+      </c>
+      <c r="M25">
+        <v>242</v>
+      </c>
+      <c r="N25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" t="s">
+        <v>351</v>
+      </c>
+      <c r="C26" t="s">
+        <v>175</v>
+      </c>
+      <c r="D26" t="s">
+        <v>354</v>
+      </c>
+      <c r="F26" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" t="s">
+        <v>114</v>
+      </c>
+      <c r="I26" t="s">
+        <v>80</v>
+      </c>
+      <c r="J26" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26">
+        <v>497</v>
+      </c>
+      <c r="L26">
+        <v>697</v>
+      </c>
+      <c r="M26">
+        <v>125</v>
+      </c>
+      <c r="N26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" t="s">
+        <v>289</v>
+      </c>
+      <c r="B27" t="s">
+        <v>351</v>
+      </c>
+      <c r="C27" t="s">
+        <v>290</v>
+      </c>
+      <c r="D27" t="s">
+        <v>291</v>
+      </c>
+      <c r="F27" t="s">
+        <v>292</v>
+      </c>
+      <c r="G27" t="s">
+        <v>293</v>
+      </c>
+      <c r="H27" t="s">
+        <v>294</v>
+      </c>
+      <c r="I27" t="s">
+        <v>295</v>
+      </c>
+      <c r="J27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27">
+        <v>350</v>
+      </c>
+      <c r="L27">
+        <v>620</v>
+      </c>
+      <c r="M27">
+        <v>90</v>
+      </c>
+      <c r="N27" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" t="s">
+        <v>351</v>
+      </c>
+      <c r="C28" t="s">
+        <v>276</v>
+      </c>
+      <c r="D28" t="s">
+        <v>291</v>
+      </c>
+      <c r="F28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" t="s">
+        <v>144</v>
+      </c>
+      <c r="H28" t="s">
+        <v>220</v>
+      </c>
+      <c r="I28" t="s">
+        <v>119</v>
+      </c>
+      <c r="J28" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28">
+        <v>502</v>
+      </c>
+      <c r="L28">
+        <v>450</v>
+      </c>
+      <c r="M28">
+        <v>85</v>
+      </c>
+      <c r="N28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" t="s">
+        <v>351</v>
+      </c>
+      <c r="C29" t="s">
+        <v>276</v>
+      </c>
+      <c r="D29" t="s">
+        <v>359</v>
+      </c>
+      <c r="F29" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" t="s">
+        <v>98</v>
+      </c>
+      <c r="H29" t="s">
+        <v>99</v>
+      </c>
+      <c r="I29" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29">
+        <v>261</v>
+      </c>
+      <c r="L29">
+        <v>352</v>
+      </c>
+      <c r="M29">
+        <v>143</v>
+      </c>
+      <c r="N29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" t="s">
+        <v>257</v>
+      </c>
+      <c r="B30" t="s">
+        <v>351</v>
+      </c>
+      <c r="C30" t="s">
+        <v>266</v>
+      </c>
+      <c r="D30" t="s">
+        <v>320</v>
+      </c>
+      <c r="F30" t="s">
+        <v>241</v>
+      </c>
+      <c r="G30" t="s">
+        <v>247</v>
+      </c>
+      <c r="H30" t="s">
+        <v>264</v>
+      </c>
+      <c r="I30" t="s">
+        <v>251</v>
+      </c>
+      <c r="J30" t="s">
+        <v>324</v>
+      </c>
+      <c r="K30">
+        <v>560</v>
+      </c>
+      <c r="L30">
+        <v>388</v>
+      </c>
+      <c r="M30">
+        <v>250</v>
+      </c>
+      <c r="N30" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K31">
+        <v>1254</v>
+      </c>
+      <c r="L31">
+        <v>499</v>
+      </c>
+      <c r="M31">
+        <v>59</v>
+      </c>
+      <c r="N31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" t="s">
+        <v>167</v>
+      </c>
+      <c r="G32" t="s">
+        <v>227</v>
+      </c>
+      <c r="H32" t="s">
+        <v>207</v>
+      </c>
+      <c r="I32" t="s">
+        <v>254</v>
+      </c>
+      <c r="J32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32">
+        <v>370</v>
+      </c>
+      <c r="L32">
+        <v>818</v>
+      </c>
+      <c r="M32">
+        <v>90</v>
+      </c>
+      <c r="N32" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" t="s">
+        <v>297</v>
+      </c>
+      <c r="B33" t="s">
+        <v>351</v>
+      </c>
+      <c r="C33" t="s">
+        <v>269</v>
+      </c>
+      <c r="D33" t="s">
+        <v>298</v>
+      </c>
+      <c r="F33" t="s">
+        <v>299</v>
+      </c>
+      <c r="G33" t="s">
+        <v>300</v>
+      </c>
+      <c r="H33" t="s">
+        <v>301</v>
+      </c>
+      <c r="I33" t="s">
+        <v>273</v>
+      </c>
+      <c r="J33" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33">
+        <v>380</v>
+      </c>
+      <c r="L33">
+        <v>620</v>
+      </c>
+      <c r="M33">
+        <v>90</v>
+      </c>
+      <c r="N33" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" t="s">
+        <v>258</v>
+      </c>
+      <c r="B34" t="s">
+        <v>351</v>
+      </c>
+      <c r="C34" t="s">
+        <v>266</v>
+      </c>
+      <c r="D34" t="s">
+        <v>320</v>
+      </c>
+      <c r="F34" t="s">
+        <v>243</v>
+      </c>
+      <c r="G34" t="s">
+        <v>248</v>
+      </c>
+      <c r="H34" t="s">
+        <v>265</v>
+      </c>
+      <c r="I34" t="s">
+        <v>251</v>
+      </c>
+      <c r="J34" t="s">
+        <v>324</v>
+      </c>
+      <c r="K34">
+        <v>485</v>
+      </c>
+      <c r="L34">
+        <v>281</v>
+      </c>
+      <c r="M34">
+        <v>9</v>
+      </c>
+      <c r="N34" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" t="s">
+        <v>351</v>
+      </c>
+      <c r="C35" t="s">
+        <v>276</v>
+      </c>
+      <c r="D35" t="s">
+        <v>359</v>
+      </c>
+      <c r="F35" t="s">
+        <v>102</v>
+      </c>
+      <c r="G35" t="s">
+        <v>98</v>
+      </c>
+      <c r="H35" t="s">
+        <v>103</v>
+      </c>
+      <c r="I35" t="s">
+        <v>80</v>
+      </c>
+      <c r="J35" t="s">
+        <v>22</v>
+      </c>
+      <c r="K35">
+        <v>363</v>
+      </c>
+      <c r="L35">
+        <v>949</v>
+      </c>
+      <c r="M35">
+        <v>20</v>
+      </c>
+      <c r="N35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" t="s">
+        <v>351</v>
+      </c>
+      <c r="C36" t="s">
+        <v>269</v>
+      </c>
+      <c r="D36" t="s">
+        <v>352</v>
+      </c>
+      <c r="E36" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" t="s">
+        <v>106</v>
+      </c>
+      <c r="G36" t="s">
+        <v>78</v>
+      </c>
+      <c r="H36" t="s">
+        <v>107</v>
+      </c>
+      <c r="I36" t="s">
+        <v>80</v>
+      </c>
+      <c r="J36" t="s">
+        <v>22</v>
+      </c>
+      <c r="K36">
+        <v>405</v>
+      </c>
+      <c r="L36">
+        <v>450</v>
+      </c>
+      <c r="M36">
+        <v>42</v>
+      </c>
+      <c r="N36" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" t="s">
+        <v>259</v>
+      </c>
+      <c r="B37" t="s">
+        <v>351</v>
+      </c>
+      <c r="C37" t="s">
+        <v>276</v>
+      </c>
+      <c r="D37" t="s">
+        <v>173</v>
+      </c>
+      <c r="F37" t="s">
+        <v>239</v>
+      </c>
+      <c r="G37" t="s">
+        <v>249</v>
+      </c>
+      <c r="H37" t="s">
+        <v>250</v>
+      </c>
+      <c r="I37" t="s">
+        <v>251</v>
+      </c>
+      <c r="J37" t="s">
+        <v>324</v>
+      </c>
+      <c r="K37">
+        <v>1109</v>
+      </c>
+      <c r="L37">
+        <v>463</v>
+      </c>
+      <c r="M37">
+        <v>207</v>
+      </c>
+      <c r="N37" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" t="s">
+        <v>351</v>
+      </c>
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" t="s">
+        <v>364</v>
+      </c>
+      <c r="F38" t="s">
+        <v>55</v>
+      </c>
+      <c r="G38" t="s">
+        <v>56</v>
+      </c>
+      <c r="H38" t="s">
+        <v>57</v>
+      </c>
+      <c r="I38" t="s">
+        <v>41</v>
+      </c>
+      <c r="J38" t="s">
+        <v>22</v>
+      </c>
+      <c r="K38">
+        <v>879</v>
+      </c>
+      <c r="L38">
+        <v>948</v>
+      </c>
+      <c r="M38">
+        <v>219</v>
+      </c>
+      <c r="N38" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" t="s">
+        <v>22</v>
+      </c>
+      <c r="K39">
+        <v>1314</v>
+      </c>
+      <c r="L39">
+        <v>499</v>
+      </c>
+      <c r="M39">
+        <v>233</v>
+      </c>
+      <c r="N39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" t="s">
+        <v>353</v>
+      </c>
+      <c r="C40" t="s">
+        <v>276</v>
+      </c>
+      <c r="D40" t="s">
+        <v>173</v>
+      </c>
+      <c r="F40" t="s">
+        <v>131</v>
+      </c>
+      <c r="G40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H40" t="s">
+        <v>365</v>
+      </c>
+      <c r="I40" t="s">
+        <v>119</v>
+      </c>
+      <c r="J40" t="s">
+        <v>22</v>
+      </c>
+      <c r="K40">
+        <v>1188</v>
+      </c>
+      <c r="L40">
+        <v>390</v>
+      </c>
+      <c r="M40">
+        <v>146</v>
+      </c>
+      <c r="N40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" t="s">
+        <v>351</v>
+      </c>
+      <c r="C41" t="s">
+        <v>269</v>
+      </c>
+      <c r="D41" t="s">
+        <v>298</v>
+      </c>
+      <c r="F41" t="s">
+        <v>77</v>
+      </c>
+      <c r="G41" t="s">
+        <v>78</v>
+      </c>
+      <c r="H41" t="s">
+        <v>79</v>
+      </c>
+      <c r="I41" t="s">
+        <v>80</v>
+      </c>
+      <c r="J41" t="s">
+        <v>22</v>
+      </c>
+      <c r="K41">
+        <v>213</v>
+      </c>
+      <c r="L41">
+        <v>834</v>
+      </c>
+      <c r="M41">
+        <v>239</v>
+      </c>
+      <c r="N41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" t="s">
+        <v>121</v>
+      </c>
+      <c r="G42" t="s">
+        <v>122</v>
+      </c>
+      <c r="H42" t="s">
+        <v>200</v>
+      </c>
+      <c r="I42" t="s">
+        <v>119</v>
+      </c>
+      <c r="J42" t="s">
+        <v>22</v>
+      </c>
+      <c r="K42">
+        <v>1016</v>
+      </c>
+      <c r="L42">
+        <v>540</v>
+      </c>
+      <c r="M42">
+        <v>209</v>
+      </c>
+      <c r="N42" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" t="s">
+        <v>170</v>
+      </c>
+      <c r="B43" t="s">
+        <v>351</v>
+      </c>
+      <c r="C43" t="s">
+        <v>276</v>
+      </c>
+      <c r="D43" t="s">
+        <v>359</v>
+      </c>
+      <c r="F43" t="s">
+        <v>171</v>
+      </c>
+      <c r="G43" t="s">
+        <v>229</v>
+      </c>
+      <c r="H43" t="s">
+        <v>209</v>
+      </c>
+      <c r="I43" t="s">
+        <v>253</v>
+      </c>
+      <c r="J43" t="s">
+        <v>22</v>
+      </c>
+      <c r="K43">
+        <v>1186</v>
+      </c>
+      <c r="L43">
+        <v>999</v>
+      </c>
+      <c r="M43">
+        <v>248</v>
+      </c>
+      <c r="N43" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44" t="s">
+        <v>351</v>
+      </c>
+      <c r="C44" t="s">
+        <v>276</v>
+      </c>
+      <c r="D44" t="s">
+        <v>291</v>
+      </c>
+      <c r="F44" t="s">
+        <v>135</v>
+      </c>
+      <c r="G44" t="s">
+        <v>136</v>
+      </c>
+      <c r="H44" t="s">
+        <v>218</v>
+      </c>
+      <c r="I44" t="s">
+        <v>119</v>
+      </c>
+      <c r="J44" t="s">
+        <v>22</v>
+      </c>
+      <c r="K44">
+        <v>296</v>
+      </c>
+      <c r="L44">
+        <v>180</v>
+      </c>
+      <c r="M44">
+        <v>164</v>
+      </c>
+      <c r="N44" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" t="s">
+        <v>351</v>
+      </c>
+      <c r="C45" t="s">
+        <v>269</v>
+      </c>
+      <c r="D45" t="s">
+        <v>352</v>
+      </c>
+      <c r="E45" t="s">
+        <v>91</v>
+      </c>
+      <c r="F45" t="s">
+        <v>92</v>
+      </c>
+      <c r="G45" t="s">
+        <v>78</v>
+      </c>
+      <c r="H45" t="s">
+        <v>93</v>
+      </c>
+      <c r="I45" t="s">
+        <v>80</v>
+      </c>
+      <c r="J45" t="s">
+        <v>22</v>
+      </c>
+      <c r="K45">
+        <v>339</v>
+      </c>
+      <c r="L45">
+        <v>374</v>
+      </c>
+      <c r="M45">
+        <v>75</v>
+      </c>
+      <c r="N45" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" t="s">
+        <v>138</v>
+      </c>
+      <c r="B46" t="s">
+        <v>351</v>
+      </c>
+      <c r="C46" t="s">
+        <v>276</v>
+      </c>
+      <c r="D46" t="s">
+        <v>359</v>
+      </c>
+      <c r="F46" t="s">
+        <v>139</v>
+      </c>
+      <c r="G46" t="s">
+        <v>140</v>
+      </c>
+      <c r="H46" t="s">
+        <v>219</v>
+      </c>
+      <c r="I46" t="s">
+        <v>119</v>
+      </c>
+      <c r="J46" t="s">
+        <v>22</v>
+      </c>
+      <c r="K46">
+        <v>667</v>
+      </c>
+      <c r="L46">
+        <v>425</v>
+      </c>
+      <c r="M46">
+        <v>191</v>
+      </c>
+      <c r="N46" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" t="s">
+        <v>30</v>
+      </c>
+      <c r="I47" t="s">
+        <v>21</v>
+      </c>
+      <c r="J47" t="s">
+        <v>22</v>
+      </c>
+      <c r="K47">
+        <v>1144</v>
+      </c>
+      <c r="L47">
+        <v>499</v>
+      </c>
+      <c r="M47">
+        <v>245</v>
+      </c>
+      <c r="N47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" t="s">
+        <v>308</v>
+      </c>
+      <c r="B48" t="s">
+        <v>351</v>
+      </c>
+      <c r="C48" t="s">
+        <v>290</v>
+      </c>
+      <c r="D48" t="s">
+        <v>291</v>
+      </c>
+      <c r="F48" t="s">
+        <v>309</v>
+      </c>
+      <c r="G48" t="s">
+        <v>310</v>
+      </c>
+      <c r="H48" t="s">
+        <v>311</v>
+      </c>
+      <c r="I48" t="s">
+        <v>312</v>
+      </c>
+      <c r="J48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K48">
+        <v>256</v>
+      </c>
+      <c r="L48">
+        <v>399</v>
+      </c>
+      <c r="M48">
+        <v>180</v>
+      </c>
+      <c r="N48" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" t="s">
+        <v>351</v>
+      </c>
+      <c r="C49" t="s">
+        <v>266</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="F49" t="s">
+        <v>65</v>
+      </c>
+      <c r="G49" t="s">
+        <v>66</v>
+      </c>
+      <c r="H49" t="s">
+        <v>67</v>
+      </c>
+      <c r="I49" t="s">
+        <v>68</v>
+      </c>
+      <c r="J49" t="s">
+        <v>22</v>
+      </c>
+      <c r="K49">
+        <v>204</v>
+      </c>
+      <c r="L49">
+        <v>560</v>
+      </c>
+      <c r="M49">
+        <v>174</v>
+      </c>
+      <c r="N49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" t="s">
+        <v>351</v>
+      </c>
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" t="s">
+        <v>364</v>
+      </c>
+      <c r="F50" t="s">
+        <v>59</v>
+      </c>
+      <c r="G50" t="s">
+        <v>60</v>
+      </c>
+      <c r="H50" t="s">
+        <v>61</v>
+      </c>
+      <c r="I50" t="s">
+        <v>41</v>
+      </c>
+      <c r="J50" t="s">
+        <v>22</v>
+      </c>
+      <c r="K50">
+        <v>991</v>
+      </c>
+      <c r="L50">
+        <v>742</v>
+      </c>
+      <c r="M50">
+        <v>15</v>
+      </c>
+      <c r="N50" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" t="s">
+        <v>368</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" t="s">
+        <v>364</v>
+      </c>
+      <c r="F51" t="s">
+        <v>38</v>
+      </c>
+      <c r="G51" t="s">
+        <v>39</v>
+      </c>
+      <c r="H51" t="s">
+        <v>40</v>
+      </c>
+      <c r="I51" t="s">
+        <v>41</v>
+      </c>
+      <c r="J51" t="s">
+        <v>22</v>
+      </c>
+      <c r="K51">
+        <v>784</v>
+      </c>
+      <c r="L51">
+        <v>551</v>
+      </c>
+      <c r="M51">
+        <v>206</v>
+      </c>
+      <c r="N51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" t="s">
+        <v>183</v>
+      </c>
+      <c r="B52" t="s">
+        <v>351</v>
+      </c>
+      <c r="C52" t="s">
+        <v>181</v>
+      </c>
+      <c r="D52" t="s">
+        <v>328</v>
+      </c>
+      <c r="F52" t="s">
+        <v>184</v>
+      </c>
+      <c r="G52" t="s">
+        <v>232</v>
+      </c>
+      <c r="H52" t="s">
+        <v>214</v>
+      </c>
+      <c r="I52" t="s">
+        <v>252</v>
+      </c>
+      <c r="J52" t="s">
+        <v>22</v>
+      </c>
+      <c r="K52">
+        <v>964</v>
+      </c>
+      <c r="L52">
+        <v>1019</v>
+      </c>
+      <c r="M52">
+        <v>158</v>
+      </c>
+      <c r="N52" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" t="s">
+        <v>351</v>
+      </c>
+      <c r="C53" t="s">
+        <v>276</v>
+      </c>
+      <c r="D53" t="s">
+        <v>291</v>
+      </c>
+      <c r="F53" t="s">
+        <v>151</v>
+      </c>
+      <c r="G53" t="s">
+        <v>152</v>
+      </c>
+      <c r="H53" t="s">
+        <v>222</v>
+      </c>
+      <c r="I53" t="s">
+        <v>119</v>
+      </c>
+      <c r="J53" t="s">
+        <v>22</v>
+      </c>
+      <c r="K53">
+        <v>956</v>
+      </c>
+      <c r="L53">
+        <v>550</v>
+      </c>
+      <c r="M53">
+        <v>225</v>
+      </c>
+      <c r="N53" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" t="s">
+        <v>370</v>
+      </c>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" t="s">
+        <v>364</v>
+      </c>
+      <c r="F54" t="s">
+        <v>71</v>
+      </c>
+      <c r="G54" t="s">
+        <v>66</v>
+      </c>
+      <c r="H54" t="s">
+        <v>72</v>
+      </c>
+      <c r="I54" t="s">
+        <v>68</v>
+      </c>
+      <c r="J54" t="s">
+        <v>22</v>
+      </c>
+      <c r="K54">
+        <v>294</v>
+      </c>
+      <c r="L54">
+        <v>406</v>
+      </c>
+      <c r="M54">
+        <v>29</v>
+      </c>
+      <c r="N54" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" t="s">
+        <v>314</v>
+      </c>
+      <c r="B55" t="s">
+        <v>351</v>
+      </c>
+      <c r="C55" t="s">
+        <v>269</v>
+      </c>
+      <c r="D55" t="s">
+        <v>298</v>
+      </c>
+      <c r="F55" t="s">
+        <v>315</v>
+      </c>
+      <c r="G55" t="s">
+        <v>316</v>
+      </c>
+      <c r="H55" t="s">
+        <v>317</v>
+      </c>
+      <c r="I55" t="s">
+        <v>273</v>
+      </c>
+      <c r="J55" t="s">
+        <v>22</v>
+      </c>
+      <c r="K55">
+        <v>296</v>
+      </c>
+      <c r="L55">
+        <v>495</v>
+      </c>
+      <c r="M55">
+        <v>130</v>
+      </c>
+      <c r="N55" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" t="s">
+        <v>177</v>
+      </c>
+      <c r="B56" t="s">
+        <v>371</v>
+      </c>
+      <c r="C56" t="s">
+        <v>178</v>
+      </c>
+      <c r="D56" t="s">
+        <v>320</v>
+      </c>
+      <c r="F56" t="s">
+        <v>179</v>
+      </c>
+      <c r="G56" t="s">
+        <v>232</v>
+      </c>
+      <c r="H56" t="s">
+        <v>212</v>
+      </c>
+      <c r="I56" t="s">
+        <v>252</v>
+      </c>
+      <c r="J56" t="s">
+        <v>22</v>
+      </c>
+      <c r="K56">
+        <v>446</v>
+      </c>
+      <c r="L56">
+        <v>1034</v>
+      </c>
+      <c r="M56">
+        <v>99</v>
+      </c>
+      <c r="N56" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" t="s">
+        <v>319</v>
+      </c>
+      <c r="B57" t="s">
+        <v>351</v>
+      </c>
+      <c r="C57" t="s">
+        <v>266</v>
+      </c>
+      <c r="D57" t="s">
+        <v>320</v>
+      </c>
+      <c r="F57" t="s">
+        <v>321</v>
+      </c>
+      <c r="G57" t="s">
+        <v>322</v>
+      </c>
+      <c r="H57" t="s">
+        <v>323</v>
+      </c>
+      <c r="I57" t="s">
+        <v>312</v>
+      </c>
+      <c r="J57" t="s">
+        <v>324</v>
+      </c>
+      <c r="K57">
+        <v>220</v>
+      </c>
+      <c r="L57">
+        <v>550</v>
+      </c>
+      <c r="M57">
+        <v>60</v>
+      </c>
+      <c r="N57" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" t="s">
+        <v>187</v>
+      </c>
+      <c r="B58" t="s">
+        <v>351</v>
+      </c>
+      <c r="C58" t="s">
+        <v>188</v>
+      </c>
+      <c r="D58" t="s">
+        <v>298</v>
+      </c>
+      <c r="F58" t="s">
+        <v>189</v>
+      </c>
+      <c r="G58" t="s">
+        <v>233</v>
+      </c>
+      <c r="H58" t="s">
+        <v>215</v>
+      </c>
+      <c r="I58" t="s">
+        <v>254</v>
+      </c>
+      <c r="J58" t="s">
+        <v>22</v>
+      </c>
+      <c r="K58">
+        <v>606</v>
+      </c>
+      <c r="L58">
+        <v>881</v>
+      </c>
+      <c r="M58">
+        <v>188</v>
+      </c>
+      <c r="N58" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" t="s">
+        <v>158</v>
+      </c>
+      <c r="B59" t="s">
+        <v>351</v>
+      </c>
+      <c r="C59" t="s">
+        <v>269</v>
+      </c>
+      <c r="D59" t="s">
+        <v>298</v>
+      </c>
+      <c r="F59" t="s">
+        <v>159</v>
+      </c>
+      <c r="G59" t="s">
+        <v>160</v>
+      </c>
+      <c r="H59" t="s">
+        <v>224</v>
+      </c>
+      <c r="I59" t="s">
+        <v>119</v>
+      </c>
+      <c r="J59" t="s">
+        <v>22</v>
+      </c>
+      <c r="K59">
+        <v>1071</v>
+      </c>
+      <c r="L59">
+        <v>480</v>
+      </c>
+      <c r="M59">
+        <v>44</v>
+      </c>
+      <c r="N59" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60" t="s">
+        <v>351</v>
+      </c>
+      <c r="C60" t="s">
+        <v>266</v>
+      </c>
+      <c r="D60" t="s">
+        <v>341</v>
+      </c>
+      <c r="E60" t="s">
+        <v>84</v>
+      </c>
+      <c r="F60" t="s">
+        <v>85</v>
+      </c>
+      <c r="G60" t="s">
+        <v>86</v>
+      </c>
+      <c r="H60" t="s">
+        <v>87</v>
+      </c>
+      <c r="I60" t="s">
+        <v>80</v>
+      </c>
+      <c r="J60" t="s">
+        <v>22</v>
+      </c>
+      <c r="K60">
+        <v>341</v>
+      </c>
+      <c r="L60">
+        <v>994</v>
+      </c>
+      <c r="M60">
+        <v>67</v>
+      </c>
+      <c r="N60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" t="s">
+        <v>256</v>
+      </c>
+      <c r="B61" t="s">
+        <v>353</v>
+      </c>
+      <c r="C61" t="s">
+        <v>266</v>
+      </c>
+      <c r="D61" t="s">
+        <v>320</v>
+      </c>
+      <c r="F61" t="s">
+        <v>237</v>
+      </c>
+      <c r="G61" t="s">
+        <v>246</v>
+      </c>
+      <c r="H61" t="s">
+        <v>263</v>
+      </c>
+      <c r="I61" t="s">
+        <v>251</v>
+      </c>
+      <c r="J61" t="s">
+        <v>324</v>
+      </c>
+      <c r="K61">
+        <v>479</v>
+      </c>
+      <c r="L61">
+        <v>476</v>
+      </c>
+      <c r="M61">
+        <v>99</v>
+      </c>
+      <c r="N61" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" t="s">
+        <v>117</v>
+      </c>
+      <c r="G62" t="s">
+        <v>118</v>
+      </c>
+      <c r="H62" t="s">
+        <v>199</v>
+      </c>
+      <c r="I62" t="s">
+        <v>119</v>
+      </c>
+      <c r="J62" t="s">
+        <v>22</v>
+      </c>
+      <c r="K62">
+        <v>962</v>
+      </c>
+      <c r="L62">
+        <v>750</v>
+      </c>
+      <c r="M62">
+        <v>156</v>
+      </c>
+      <c r="N62" t="s">
+        <v>374</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G52" sqref="G52"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -1851,7 +4523,7 @@
         <v>75</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="N7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1908,7 +4580,7 @@
         <v>242</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="N8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1965,7 +4637,7 @@
         <v>202</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="N9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2020,7 +4692,7 @@
         <v>219</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="N10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2075,7 +4747,7 @@
         <v>15</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="N11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2354,7 +5026,7 @@
         <v>75</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="N16" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2521,7 +5193,7 @@
         <v>42</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="N19" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2578,7 +5250,7 @@
         <v>143</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="N20" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2602,7 +5274,7 @@
         <v>111</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>112</v>
@@ -2670,7 +5342,7 @@
         <v>118</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>119</v>
@@ -2687,8 +5359,8 @@
       <c r="L22" s="1">
         <v>156</v>
       </c>
-      <c r="M22" s="6" t="s">
-        <v>120</v>
+      <c r="M22" t="s">
+        <v>374</v>
       </c>
       <c r="N22" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2709,7 +5381,7 @@
     </row>
     <row r="23" spans="1:26" ht="16.5" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>15</v>
@@ -2719,13 +5391,13 @@
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="G23" s="13" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>119</v>
@@ -2742,8 +5414,8 @@
       <c r="L23" s="1">
         <v>209</v>
       </c>
-      <c r="M23" s="6" t="s">
-        <v>124</v>
+      <c r="M23" t="s">
+        <v>366</v>
       </c>
       <c r="N23" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2764,7 +5436,7 @@
     </row>
     <row r="24" spans="1:26" ht="16.5" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>95</v>
@@ -2774,13 +5446,13 @@
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>119</v>
@@ -2797,8 +5469,8 @@
       <c r="L24" s="1">
         <v>223</v>
       </c>
-      <c r="M24" s="6" t="s">
-        <v>128</v>
+      <c r="M24" t="s">
+        <v>361</v>
       </c>
       <c r="N24" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2819,23 +5491,23 @@
     </row>
     <row r="25" spans="1:26" ht="16.5" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>119</v>
@@ -2853,7 +5525,7 @@
         <v>63</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N25" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2874,23 +5546,23 @@
     </row>
     <row r="26" spans="1:26" ht="16.5" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>119</v>
@@ -2908,7 +5580,7 @@
         <v>146</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="N26" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2929,23 +5601,23 @@
     </row>
     <row r="27" spans="1:26" ht="16.5" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>119</v>
@@ -2963,7 +5635,7 @@
         <v>164</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N27" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2984,23 +5656,23 @@
     </row>
     <row r="28" spans="1:26" ht="16.5" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>119</v>
@@ -3018,7 +5690,7 @@
         <v>191</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N28" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3039,23 +5711,23 @@
     </row>
     <row r="29" spans="1:26" ht="16.5" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>119</v>
@@ -3073,7 +5745,7 @@
         <v>85</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N29" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3094,7 +5766,7 @@
     </row>
     <row r="30" spans="1:26" ht="16.5" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>63</v>
@@ -3104,13 +5776,13 @@
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>119</v>
@@ -3128,7 +5800,7 @@
         <v>67</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N30" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3149,23 +5821,23 @@
     </row>
     <row r="31" spans="1:26" ht="16.5" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>119</v>
@@ -3183,7 +5855,7 @@
         <v>225</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N31" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3204,23 +5876,23 @@
     </row>
     <row r="32" spans="1:26" ht="16.5" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>119</v>
@@ -3238,7 +5910,7 @@
         <v>195</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N32" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3259,7 +5931,7 @@
     </row>
     <row r="33" spans="1:26" ht="16.5" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>75</v>
@@ -3269,13 +5941,13 @@
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>119</v>
@@ -3293,7 +5965,7 @@
         <v>44</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="N33" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3314,23 +5986,23 @@
     </row>
     <row r="34" spans="1:26" ht="16.5" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>119</v>
@@ -3348,7 +6020,7 @@
         <v>3</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N34" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3369,7 +6041,7 @@
     </row>
     <row r="35" spans="1:26" ht="16.5" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>15</v>
@@ -3379,16 +6051,16 @@
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>22</v>
@@ -3402,8 +6074,8 @@
       <c r="L35" s="1">
         <v>90</v>
       </c>
-      <c r="M35" s="6" t="s">
-        <v>171</v>
+      <c r="M35" t="s">
+        <v>363</v>
       </c>
       <c r="N35" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3424,7 +6096,7 @@
     </row>
     <row r="36" spans="1:26" ht="16.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>15</v>
@@ -3434,16 +6106,16 @@
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>22</v>
@@ -3457,8 +6129,8 @@
       <c r="L36" s="1">
         <v>208</v>
       </c>
-      <c r="M36" s="6" t="s">
-        <v>174</v>
+      <c r="M36" t="s">
+        <v>362</v>
       </c>
       <c r="N36" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3479,7 +6151,7 @@
     </row>
     <row r="37" spans="1:26" ht="16.5" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>95</v>
@@ -3489,16 +6161,16 @@
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>22</v>
@@ -3512,8 +6184,8 @@
       <c r="L37" s="1">
         <v>248</v>
       </c>
-      <c r="M37" s="6" t="s">
-        <v>177</v>
+      <c r="M37" t="s">
+        <v>367</v>
       </c>
       <c r="N37" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3534,7 +6206,7 @@
     </row>
     <row r="38" spans="1:26" ht="16.5" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>95</v>
@@ -3544,16 +6216,16 @@
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>22</v>
@@ -3567,8 +6239,8 @@
       <c r="L38" s="1">
         <v>150</v>
       </c>
-      <c r="M38" s="6" t="s">
-        <v>180</v>
+      <c r="M38" t="s">
+        <v>356</v>
       </c>
       <c r="N38" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3589,26 +6261,26 @@
     </row>
     <row r="39" spans="1:26" ht="16.5" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>22</v>
@@ -3622,8 +6294,8 @@
       <c r="L39" s="1">
         <v>57</v>
       </c>
-      <c r="M39" s="6" t="s">
-        <v>184</v>
+      <c r="M39" t="s">
+        <v>355</v>
       </c>
       <c r="N39" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3644,26 +6316,26 @@
     </row>
     <row r="40" spans="1:26" ht="16.5" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>22</v>
@@ -3677,8 +6349,8 @@
       <c r="L40" s="1">
         <v>99</v>
       </c>
-      <c r="M40" s="6" t="s">
-        <v>188</v>
+      <c r="M40" t="s">
+        <v>372</v>
       </c>
       <c r="N40" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3699,26 +6371,26 @@
     </row>
     <row r="41" spans="1:26" ht="16.5" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>22</v>
@@ -3732,8 +6404,8 @@
       <c r="L41" s="1">
         <v>235</v>
       </c>
-      <c r="M41" s="6" t="s">
-        <v>192</v>
+      <c r="M41" t="s">
+        <v>360</v>
       </c>
       <c r="N41" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3754,26 +6426,26 @@
     </row>
     <row r="42" spans="1:26" ht="16.5" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>22</v>
@@ -3787,8 +6459,8 @@
       <c r="L42" s="1">
         <v>158</v>
       </c>
-      <c r="M42" s="6" t="s">
-        <v>195</v>
+      <c r="M42" t="s">
+        <v>369</v>
       </c>
       <c r="N42" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3809,26 +6481,26 @@
     </row>
     <row r="43" spans="1:26" ht="16.5" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>22</v>
@@ -3842,8 +6514,8 @@
       <c r="L43" s="1">
         <v>86</v>
       </c>
-      <c r="M43" s="6" t="s">
-        <v>198</v>
+      <c r="M43" t="s">
+        <v>358</v>
       </c>
       <c r="N43" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3864,26 +6536,26 @@
     </row>
     <row r="44" spans="1:26" ht="16.5" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>22</v>
@@ -3897,8 +6569,8 @@
       <c r="L44" s="1">
         <v>188</v>
       </c>
-      <c r="M44" s="6" t="s">
-        <v>202</v>
+      <c r="M44" t="s">
+        <v>373</v>
       </c>
       <c r="N44" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3919,29 +6591,29 @@
     </row>
     <row r="45" spans="1:26" ht="16.5" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="14" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="J45" s="1">
         <v>664</v>
@@ -3953,7 +6625,7 @@
         <v>76</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="N45" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3974,29 +6646,29 @@
     </row>
     <row r="46" spans="1:26" ht="16.5" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="14" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="J46" s="1">
         <v>479</v>
@@ -4008,7 +6680,7 @@
         <v>99</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="N46" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4029,29 +6701,29 @@
     </row>
     <row r="47" spans="1:26" ht="16.5" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="14" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="J47" s="1">
         <v>560</v>
@@ -4063,7 +6735,7 @@
         <v>250</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="N47" s="7" t="str">
         <f>IF(M47&lt;&gt;"",HYPERLINK(M47, "查看圖片"),"")</f>
@@ -4084,29 +6756,29 @@
     </row>
     <row r="48" spans="1:26" ht="16.5" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="14" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="J48" s="2">
         <v>485</v>
@@ -4118,7 +6790,7 @@
         <v>9</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="N48" s="7" t="str">
         <f>IF(M48&lt;&gt;"",HYPERLINK(M48, "查看圖片"),"")</f>
@@ -4139,7 +6811,7 @@
     </row>
     <row r="49" spans="1:26" ht="16.5" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>95</v>
@@ -4149,19 +6821,19 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="14" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="J49" s="2">
         <v>1109</v>
@@ -4173,7 +6845,7 @@
         <v>207</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="N49" s="7" t="str">
         <f t="shared" ref="N49:N62" si="1">IF(M49&lt;&gt;"",HYPERLINK(M49, "查看圖片"),"")</f>
@@ -4194,25 +6866,25 @@
     </row>
     <row r="50" spans="1:26" ht="16.5" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>22</v>
@@ -4227,7 +6899,7 @@
         <v>120</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="N50" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4248,25 +6920,25 @@
     </row>
     <row r="51" spans="1:26" ht="16.5" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>22</v>
@@ -4281,7 +6953,7 @@
         <v>85</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="N51" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4302,25 +6974,25 @@
     </row>
     <row r="52" spans="1:26" ht="16.5" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>22</v>
@@ -4335,7 +7007,7 @@
         <v>155</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="N52" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4356,25 +7028,25 @@
     </row>
     <row r="53" spans="1:26" ht="16.5" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>22</v>
@@ -4389,7 +7061,7 @@
         <v>90</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="N53" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4410,25 +7082,25 @@
     </row>
     <row r="54" spans="1:26" ht="16.5" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>22</v>
@@ -4443,7 +7115,7 @@
         <v>90</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="N54" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4464,25 +7136,25 @@
     </row>
     <row r="55" spans="1:26" ht="16.5" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="C55" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="E55" s="4" t="s">
-        <v>317</v>
-      </c>
       <c r="F55" s="4" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>22</v>
@@ -4497,7 +7169,7 @@
         <v>75</v>
       </c>
       <c r="M55" s="6" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="N55" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4518,25 +7190,25 @@
     </row>
     <row r="56" spans="1:26" ht="16.5" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>22</v>
@@ -4551,7 +7223,7 @@
         <v>180</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="N56" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4572,25 +7244,25 @@
     </row>
     <row r="57" spans="1:26" ht="16.5" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>22</v>
@@ -4605,7 +7277,7 @@
         <v>130</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="N57" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4626,28 +7298,28 @@
     </row>
     <row r="58" spans="1:26" ht="16.5" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="J58" s="4">
         <v>220</v>
@@ -4659,7 +7331,7 @@
         <v>60</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="N58" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4680,28 +7352,28 @@
     </row>
     <row r="59" spans="1:26" ht="16.5" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="J59" s="4">
         <v>180</v>
@@ -4713,7 +7385,7 @@
         <v>200</v>
       </c>
       <c r="M59" s="6" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="N59" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4734,28 +7406,28 @@
     </row>
     <row r="60" spans="1:26" ht="16.5" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="J60" s="4">
         <v>410</v>
@@ -4767,7 +7439,7 @@
         <v>95</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="N60" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4788,28 +7460,28 @@
     </row>
     <row r="61" spans="1:26" ht="16.5" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="J61" s="4">
         <v>370</v>
@@ -4821,7 +7493,7 @@
         <v>70</v>
       </c>
       <c r="M61" s="6" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="N61" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4842,28 +7514,28 @@
     </row>
     <row r="62" spans="1:26" ht="16.5" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="J62" s="4">
         <v>490</v>
@@ -4875,7 +7547,7 @@
         <v>50</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="N62" s="7" t="str">
         <f t="shared" si="1"/>
@@ -31053,7 +33725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1000"/>
   <sheetViews>
@@ -31074,10 +33746,10 @@
       </c>
       <c r="B1" s="9" t="str">
         <f ca="1">"999-000-" &amp; TEXT(RANDBETWEEN(0,999999),"000000") &amp; "-" &amp; RANDBETWEEN(0,9)</f>
-        <v>999-000-246488-1</v>
+        <v>999-000-607148-6</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="16.5" customHeight="1"/>
@@ -31087,7 +33759,7 @@
     <row r="6" spans="1:14" ht="16.5" customHeight="1"/>
     <row r="7" spans="1:14" ht="16.5" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -31110,7 +33782,7 @@
       </c>
       <c r="M7" s="15"/>
       <c r="N7" s="16" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="16.5" customHeight="1"/>
